--- a/PROJECT/thesis/fig/q/B-C-F/without AU.xlsx
+++ b/PROJECT/thesis/fig/q/B-C-F/without AU.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="10">
   <si>
     <t>B</t>
   </si>
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,7 +102,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -428,9 +428,11 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +448,20 @@
       <c r="E1" s="2">
         <v>-0.52993836212300005</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2">
+        <v>-0.52993836212300005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +477,20 @@
       <c r="E2" s="2">
         <v>-0.74827230437400005</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-0.74827230437400005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +506,20 @@
       <c r="E3" s="2">
         <v>-0.45209527108999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-0.45209527108999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +535,20 @@
       <c r="E4" s="2">
         <v>0.22646902192400001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.22646902192400001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +564,20 @@
       <c r="E5" s="2">
         <v>0.30745671775900002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.30745671775900002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +593,20 @@
       <c r="E6" s="2">
         <v>0.19105291422199999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.19105291422199999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +622,20 @@
       <c r="E7" s="2">
         <v>49.108929766700001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>49.108929766700001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +651,20 @@
       <c r="E8" s="2">
         <v>48.2671542856</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>48.2671542856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +680,20 @@
       <c r="E9" s="2">
         <v>53.740065936599997</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>53.740065936599997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +709,20 @@
       <c r="E10" s="2">
         <v>51.194539573500002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>51.194539573500002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +738,20 @@
       <c r="E11" s="2">
         <v>52.173661301000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>52.173661301000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +767,20 @@
       <c r="E12" s="2">
         <v>46.520976420300002</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>46.520976420300002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,8 +796,20 @@
       <c r="E13" s="2">
         <v>-0.41338838528400002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-0.41338838528400002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -667,8 +825,20 @@
       <c r="E14" s="2">
         <v>-0.58596264050900004</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-0.58596264050900004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -684,8 +854,20 @@
       <c r="E15" s="2">
         <v>-0.35099785740200001</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-0.35099785740200001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,8 +883,20 @@
       <c r="E16" s="2">
         <v>0.34643293468800002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.34643293468800002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -718,8 +912,20 @@
       <c r="E17" s="2">
         <v>0.47828263585199998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.47828263585199998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,8 +941,20 @@
       <c r="E18" s="2">
         <v>0.292288345294</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.292288345294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,8 +970,20 @@
       <c r="E19" s="2">
         <v>50.259489143300002</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>50.259489143300002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,8 +999,20 @@
       <c r="E20" s="2">
         <v>49.370773657400001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>49.370773657400001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,8 +1028,20 @@
       <c r="E21" s="2">
         <v>54.881453597700002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>54.881453597700002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -803,8 +1057,20 @@
       <c r="E22" s="2">
         <v>49.807466307299997</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>49.807466307299997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -820,8 +1086,20 @@
       <c r="E23" s="2">
         <v>50.7369063473</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>50.7369063473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +1115,20 @@
       <c r="E24" s="2">
         <v>45.1772559144</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>45.1772559144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,8 +1144,20 @@
       <c r="E25" s="2">
         <v>2.9676229692099998</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.9676229692099998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +1173,20 @@
       <c r="E26" s="2">
         <v>3.91532682793</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3.91532682793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +1202,20 @@
       <c r="E27" s="2">
         <v>2.59835074636</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2.59835074636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +1231,20 @@
       <c r="E28" s="2">
         <v>3.88637286278</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3.88637286278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,8 +1260,20 @@
       <c r="E29" s="2">
         <v>5.3169082206200002</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5.3169082206200002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,8 +1289,20 @@
       <c r="E30" s="2">
         <v>3.39204910056</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.39204910056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -956,8 +1318,20 @@
       <c r="E31" s="2">
         <v>42.104757492399997</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>42.104757492399997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -973,8 +1347,20 @@
       <c r="E32" s="2">
         <v>40.190907594499997</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>40.190907594499997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1376,20 @@
       <c r="E33" s="2">
         <v>47.004558872300002</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>47.004558872300002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1405,20 @@
       <c r="E34" s="2">
         <v>51.041246675700002</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>51.041246675700002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,8 +1434,20 @@
       <c r="E35" s="2">
         <v>50.576857357000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>50.576857357000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1039,6 +1461,18 @@
         <v>47.0050412808</v>
       </c>
       <c r="E36" s="2">
+        <v>47.0050412808</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
         <v>47.0050412808</v>
       </c>
     </row>
